--- a/DayEight/TestScript/Day8.xlsx
+++ b/DayEight/TestScript/Day8.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1708269134" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1708269134" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1708269134" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1708269134"/>
+      <pm:revision xmlns:pm="smNativeData" day="1708364178" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1708364178" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1708364178" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1708364178"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +40,7 @@
     <t>Scrolling_Youtube</t>
   </si>
   <si>
-    <t>Navigate to Youtybe Home Page and perform random scrolling and click on any video</t>
+    <t>Navigate to Youtube Home Page and perform random scrolling and click on any video</t>
   </si>
   <si>
     <t>Use  JavaScript Executor</t>
@@ -71,7 +71,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1708269134" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1708364178" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -93,7 +93,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1708269134" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1708364178" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -115,7 +115,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1708269134"/>
+          <pm:border xmlns:pm="smNativeData" id="1708364178"/>
         </ext>
       </extLst>
     </border>
@@ -134,7 +134,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1708269134"/>
+          <pm:border xmlns:pm="smNativeData" id="1708364178"/>
         </ext>
       </extLst>
     </border>
@@ -154,7 +154,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1708269134" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1708364178" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -421,7 +421,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -498,7 +498,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1708269134" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1708364178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -507,16 +507,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1708269134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1708269134" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1708269134" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1708269134" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1708364178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1708364178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1708364178" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1708364178" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1708269134" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1708364178" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
